--- a/biology/Microbiologie/Pyrococcus/Pyrococcus.xlsx
+++ b/biology/Microbiologie/Pyrococcus/Pyrococcus.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Pyrococcus est un genre d’Archaea appartenant au phylum des Euryarchaeota et à l’ordre des Thermococcales. Les cellules sont des coques irréguliers, flagellées, hétérotrophes.Ces procaryotes sont hyperthermophiles ; leur croissance est la plus rapide à 103 °C, à une pression de 200 atmosphère. Ce sont des anaérobies strictes.
 </t>
@@ -513,17 +525,19 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Liste des espèces
-Pyrococcus abyssi
+          <t>Liste des espèces</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Pyrococcus abyssi
 Pyrococcus endeavori
 Pyrococcus furiosus
 Pyrococcus glycovorans
 Pyrococcus horikoshii
 Pyrococcus wosei
-…
-Descriptions
-Pyrococcus abyssi et Pyrococcus horikoshii ont été collectées aux abords de cheminées hydrothermales profondes au niveau des dorsales océaniques (à 3 500 m de profondeur pour P. abyssi) dans le sud-ouest du Pacifique[1],[2].
-Pyrococcus furiosus a été isolée de sédiments vers l’île Vulcano en Italie[3].</t>
+…</t>
         </is>
       </c>
     </row>
@@ -548,12 +562,51 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
+          <t>Espèces</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Descriptions</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Pyrococcus abyssi et Pyrococcus horikoshii ont été collectées aux abords de cheminées hydrothermales profondes au niveau des dorsales océaniques (à 3 500 m de profondeur pour P. abyssi) dans le sud-ouest du Pacifique,.
+Pyrococcus furiosus a été isolée de sédiments vers l’île Vulcano en Italie.</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Pyrococcus</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Microbiologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Pyrococcus</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
           <t>Génomique</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les génomes de Pyrococus abyssi et Pyrococus furiosus sont entièrement séquencés. Le génome de P. abyssi est composé d'un chromosome circulaire de 1,76 Mb et d'un plasmide 3,5 kb[4]. 
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les génomes de Pyrococus abyssi et Pyrococus furiosus sont entièrement séquencés. Le génome de P. abyssi est composé d'un chromosome circulaire de 1,76 Mb et d'un plasmide 3,5 kb. 
 Ces micro-organismes sont très étudiés en laboratoire afin de mieux comprendre leur multiplication dans des environnements extrêmes et de découvrir de nouvelles protéines thermostables ayant des applications biotechnologiques (biologie moléculaire).
 </t>
         </is>
